--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Chats</t>
   </si>
@@ -57,6 +57,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I have everything, multiple plate carriers. Plates, full soft inserts, med pack filled with all kinds of shit. Kevlar helmet, bunp helmet, mouth guard that kinds of stuff. Although I try to minimize what I wear, lots of gear to protect you seems like a good idea till you have to do anything important or with any speed. 
 </t>
@@ -67,6 +68,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Knowing that they try to stab you under your vest means thinking outside the box a little tho</t>
     </r>
@@ -117,6 +119,42 @@
     <t xml:space="preserve">Do we need to tell the world that's why? No. We can get antifa riled up and scared. Joe has an audience and we can use that to get messages and disinformation to the other side. Gotta think bigger bro. We know why we aren't going in colors. But the enemy doesn’t need to</t>
   </si>
   <si>
+    <t xml:space="preserve">Pedro (Q-Tip) Homelander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring tents and the brothers that are driving some firewood and will build a fucking camp in BLM plaza. Octoberfest style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same here I was going to rallies all alone in Boston fighting against antifa the PBs saw me and ask me to join club was still very small back then thought that was why we are here but others say we are just a drinking club and I always say that's BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thad PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should ABSOLUTELY have rules of engagement revised with both Antifa/bIm and also integration SOP’s for normy “allies” and especially press during events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s how people got stabbed. One guy saying shit and 30 pbs go after him. We cannot be the aggressor like that. We just need to stay in formation and don’t let anyone that is not a PB within the group. We also cannot just hang in the streets like we did in front of Harris. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Presidents Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Hagen Cloutmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If u say we aren’t wearing colors, they will target normal people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron POYB (B Ham Leader)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I agree and not only that, now antifa knows any destruction they do, they can just say it was proudboys</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSD Main</t>
   </si>
   <si>
@@ -126,6 +164,49 @@
     <t xml:space="preserve">This? This right here? This could grow some  legs. Think about it. If we all went in as ‘Tifa, somehow using their fucking shit to identify ourselves amongst each other, everyone wearing red arm bands, everyone wearing, uh, yellow fucking hammer and sickle on their shirts. And then roll up with  ‘Tifa and beat the motherfuck out of them? This could grow some legs… just sayin’.</t>
   </si>
   <si>
+    <t xml:space="preserve">NOBLE LEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuck, you guys get carried away sometimes. All I said was to wear black.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish we were half as cool where we could coordinate something like this. If we wanted to. In Minecraft. But the truth is we can’t even get guys to march in the same direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blackbeard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right? Imagine if anybody actually knew how fucking retarded our members are. I wonder if they’d even acknowledge it at this point. Because of how wrong they will have to admit they have been for all these years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah, let’s do this from the ground tomorrow while I’m in D.C. The problem that I have is, we’re only going to be talking about certain aspects of it, but, um, I’m getting so many conflicting issues with, like, stages, locations, and times that, um, that I don’t know where to put people. I do know that we gotta be out, uh, very early.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is @NobleLead still doing a speech? Where is that? These are things that are holding up my thought process for the moment. Other than that the captial is a good start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSD – Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleted Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone at night that gets high powered strobed move backwards not forwards. You will be anywhere from 10 seconds to 30 seconds visually impaired.02:29They will swarm you. Anyone that see those little fuckers pulling that shit run up and TKO that MFer. Man or women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSD Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👆Also if they stobe you pull out gel pepper spray and send it flying in the strobes direction. You can get away as they back up, for other guys behind you to come clean up the trash
+I've had this before they knew what it was. I gave the other one to my favorite nephew. This laser will will burn your eye out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If and I mean if we go lurking after the sun goes down we need a minimum of 2 rows, if not 3. That way the firstrow can retreat backwards id needed the secondcrow advance and alternate and so on. Unified fronts are hard to collapse. Mayb the front front line takes the cucks passes them to the back while everyone does their jobs</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSD MAIN2</t>
   </si>
   <si>
@@ -135,13 +216,67 @@
     <t xml:space="preserve">ok so @Noblebeard is Biggs or you giving  us at anypoint tonight what our task is or if its aborted and we ade back to just going  as patriots no covert pb shit</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD Op</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If and I mean if we go lurking after the sun goes down we need a minimum of 2 rows, if not 3. That way the firstrow can retreat backwards id needed the secondcrow advance and alternate and so on. Unified fronts are hard to collapse. Mayb the front front line takes the cucks passes them to the back while everyone does their jobs</t>
+    <t xml:space="preserve">MOSD MAIN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rufio Panman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[inaudible] we’re planning ahead, uh, as if the rally’s continuing. Ah, as far as what we do tomorrow, that’s what we’re trying to figure out. Where Enrique’s gonna be, how extensive this is, uh, and everything [inaudible] his charges, so. Right now, I want everybody to stand by and not make any moves. Do not wear colors by any means if you’re out on the streets, uh, and just assume the worst. Ah, until you hear from me just basically stand by, if you hear any other details please let me know. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am taking a knife 🔪 also because fuck ANTIFA twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alekos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s gonna get real interesting at night time can hardly fucking wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New MOSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we still have plans to break off on teams, we can pick them there on the spot obviously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what were some of the objectives agreed on anyway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boots on the Ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Bigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woth rufio trying to get numbers so we can make a plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Of The Bloody East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington DC — It's already starting. Antifa/BLM harass a group of guys and mace one when he knocks down the umbrella they shoved in his face. Camera person gets phone knocked out of her hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was NOT what I expected to happen today, 😂😂. All from us showing up and starting some chants and getting the normies all riled up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't think there ever was really a plan. I know I had no input if there was. We were caught off guard for sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was definitely not enough planning for this rally. We were busy trying to set this thing up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YutYut Cowabunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well for starters there was only like 20 MOSD guys even there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody bailed</t>
   </si>
 </sst>
 </file>
@@ -152,11 +287,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,84 +310,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,54 +346,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD0D0D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD0D0D0"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -315,23 +359,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,25 +384,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,23 +398,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,11 +426,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,49 +438,44 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -493,7 +500,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -520,10 +527,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,46 +715,402 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+    <row r="14" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>44195.3401273148</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" s="9" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>44195.5264583333</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" s="9" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>44195.6760300926</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>44195.443900463</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>44196.7282638889</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>44196.7282638889</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
         <v>44194.5940856482</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="B20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>44198.8496990741</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <v>44198.8576388889</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <v>44198.8581018519</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>44199.7982986111</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>44199.8016319444</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>44200.1027777778</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>44200.1208333333</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" s="9" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
         <v>44200.8243055556</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="157.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
-        <v>44200.1208333333</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="n">
+        <v>44200.8730324074</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>44200.4034722222</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>44200.6770833333</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <v>44201.8993981482</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <v>44201.9033101852</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <v>44201.7238425926</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <v>44201.7496064815</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>44202.7148032407</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>44203.3904166667</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>44203.3916087963</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
+        <v>44203.3920138889</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>44203.3921064815</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
-  <si>
-    <t xml:space="preserve">Potentially Exculpatory Chats</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+  <si>
+    <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
   <si>
     <t xml:space="preserve">Date&amp;Time</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD</t>
+    <t xml:space="preserve">MOSD MAIN</t>
   </si>
   <si>
     <t xml:space="preserve">BrotherHunter Jake Phillips</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">I agree and not only that, now antifa knows any destruction they do, they can just say it was proudboys</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD Main</t>
+    <t xml:space="preserve">MOSD Main (Voice Note)</t>
   </si>
   <si>
     <t xml:space="preserve">Vito (il Duce) Russo</t>
@@ -164,7 +164,10 @@
     <t xml:space="preserve">This? This right here? This could grow some  legs. Think about it. If we all went in as ‘Tifa, somehow using their fucking shit to identify ourselves amongst each other, everyone wearing red arm bands, everyone wearing, uh, yellow fucking hammer and sickle on their shirts. And then roll up with  ‘Tifa and beat the motherfuck out of them? This could grow some legs… just sayin’.</t>
   </si>
   <si>
-    <t xml:space="preserve">NOBLE LEAD</t>
+    <t xml:space="preserve">MOSD (Voice Note)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOBLE LEAD [Enrique Tarrio]</t>
   </si>
   <si>
     <t xml:space="preserve">Fuck, you guys get carried away sometimes. All I said was to wear black.</t>
@@ -173,7 +176,7 @@
     <t xml:space="preserve">I wish we were half as cool where we could coordinate something like this. If we wanted to. In Minecraft. But the truth is we can’t even get guys to march in the same direction. </t>
   </si>
   <si>
-    <t xml:space="preserve">Johnny Blackbeard</t>
+    <t xml:space="preserve">Johnny Blackbeard [Johnny Stewart]</t>
   </si>
   <si>
     <t xml:space="preserve">Right? Imagine if anybody actually knew how fucking retarded our members are. I wonder if they’d even acknowledge it at this point. Because of how wrong they will have to admit they have been for all these years.</t>
@@ -182,22 +185,22 @@
     <t xml:space="preserve">Yeah, let’s do this from the ground tomorrow while I’m in D.C. The problem that I have is, we’re only going to be talking about certain aspects of it, but, um, I’m getting so many conflicting issues with, like, stages, locations, and times that, um, that I don’t know where to put people. I do know that we gotta be out, uh, very early.</t>
   </si>
   <si>
-    <t xml:space="preserve">Captain Trump</t>
+    <t xml:space="preserve">MOSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Trump [Zachary Rehl]</t>
   </si>
   <si>
     <t xml:space="preserve">Is @NobleLead still doing a speech? Where is that? These are things that are holding up my thought process for the moment. Other than that the captial is a good start</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD – Op</t>
+    <t xml:space="preserve">MOSD Op</t>
   </si>
   <si>
     <t xml:space="preserve">Deleted Account</t>
   </si>
   <si>
     <t xml:space="preserve">Anyone at night that gets high powered strobed move backwards not forwards. You will be anywhere from 10 seconds to 30 seconds visually impaired.02:29They will swarm you. Anyone that see those little fuckers pulling that shit run up and TKO that MFer. Man or women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSD Op</t>
   </si>
   <si>
     <t xml:space="preserve">👆Also if they stobe you pull out gel pepper spray and send it flying in the strobes direction. You can get away as they back up, for other guys behind you to come clean up the trash
@@ -216,7 +219,7 @@
     <t xml:space="preserve">ok so @Noblebeard is Biggs or you giving  us at anypoint tonight what our task is or if its aborted and we ade back to just going  as patriots no covert pb shit</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD MAIN 2</t>
+    <t xml:space="preserve">MOSD MAIN 2 (Voice Note)</t>
   </si>
   <si>
     <t xml:space="preserve">Rufio Panman</t>
@@ -240,6 +243,9 @@
     <t xml:space="preserve">New MOSD</t>
   </si>
   <si>
+    <t xml:space="preserve">Captain Trump</t>
+  </si>
+  <si>
     <t xml:space="preserve">If we still have plans to break off on teams, we can pick them there on the spot obviously</t>
   </si>
   <si>
@@ -255,22 +261,80 @@
     <t xml:space="preserve">Woth rufio trying to get numbers so we can make a plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Aaron Of The Bloody East</t>
+    <t xml:space="preserve">Kreeper 2nd* HVNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is so unorganized! Where is our order?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Jefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s not a pb event
+Why would there be orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This isn’t like any other event I’ve attended. Too many questions and not enough answers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to Joe Bigs “We still have people coming in”]
+No fuckin plan either</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Of The Bloody East [Aaron Wolkind]</t>
   </si>
   <si>
     <t xml:space="preserve">Washington DC — It's already starting. Antifa/BLM harass a group of guys and mace one when he knocks down the umbrella they shoved in his face. Camera person gets phone knocked out of her hands</t>
   </si>
   <si>
+    <t xml:space="preserve">Matthew The People’s Chairman Walter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok you queers what is the fucking plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YutYut Cowabunga [Charles Donohoe]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey who's boots on ground with a plan RN
+Guys are asking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the plan so I can pass it to the MOSD guys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Biggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to YutYut Cowabunga “What’s the plan so I can pass it to the MOSD guys”]:
+I gave Enrique a plan. The one I told the guys and he said he had one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM Antifa thugs attacking Trump supporters in D.C.
+This is the vicious assault by BLM scumbag on Trump supporter in Washington D.C.
+[video attached]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кров і грунт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lol. This is a mirror of the 12th. Exact same plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ummm I don’t think the plan was to attacked, damage, and attempt to control government building.
+I believe Trump is saying FAFO</t>
+  </si>
+  <si>
     <t xml:space="preserve">That was NOT what I expected to happen today, 😂😂. All from us showing up and starting some chants and getting the normies all riled up</t>
   </si>
   <si>
     <t xml:space="preserve">I don't think there ever was really a plan. I know I had no input if there was. We were caught off guard for sure.</t>
   </si>
   <si>
+    <t xml:space="preserve">Noble Beard The Immortal [Jeremy Bertino]</t>
+  </si>
+  <si>
     <t xml:space="preserve">There was definitely not enough planning for this rally. We were busy trying to set this thing up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YutYut Cowabunga</t>
   </si>
   <si>
     <t xml:space="preserve">Well for starters there was only like 20 MOSD guys even there</t>
@@ -287,7 +351,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,6 +383,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -385,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,11 +493,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,7 +521,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,10 +602,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,248 +643,251 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>44192.1500115741</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" s="9" customFormat="true" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>44192.8309259259</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" s="9" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>44192.9196064815</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>44193.3944097222</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>44193.9249189815</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>44194.2631018519</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>44194.3294328704</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>44193.929525463</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>44195.0198263889</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" s="9" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>44195</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>44195.3401273148</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>44195.5264583333</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" s="9" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>44195.6760300926</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" s="9" customFormat="true" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>44195.443900463</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>44194.5940856482</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -820,303 +898,508 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>44198.8496990741</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="n">
+        <v>44198.8576388889</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="C22" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
-        <v>44198.8576388889</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="n">
+        <v>44198.8581018519</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
-        <v>44198.8581018519</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="15" t="n">
         <v>44199.7982986111</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="15" t="n">
         <v>44199.8016319444</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>6</v>
+      <c r="B25" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="15" t="n">
         <v>44200.1027777778</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
+        <v>44200.1208333333</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="n">
+        <v>44200.8243055556</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
+        <v>44200.8730324074</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
+        <v>44200.4034722222</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
+        <v>44200.6770833333</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
+        <v>44201.8993981482</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>44201.9033101852</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
-        <v>44200.1069444444</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
-        <v>44200.1208333333</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" s="9" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
-        <v>44200.8243055556</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
-        <v>44200.8730324074</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
-        <v>44200.4034722222</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
-        <v>44200.6770833333</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
-        <v>44201.8993981482</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
+        <v>44201.7238425926</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
+        <v>44201.7404166667</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
+        <v>44201.7407175926</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
+        <v>44201.741412037</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="n">
+        <v>44201.7441782407</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="n">
+        <v>44201.7496064815</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="n">
+        <v>44201.8134143519</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="n">
+        <v>44201.8798611111</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
-        <v>44201.9033101852</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
-        <v>44201.7238425926</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="n">
+        <v>44201.8899305556</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="n">
+        <v>44201.8906365741</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="n">
+        <v>44201.9730555556</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
-        <v>44201.7496064815</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="C45" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="n">
+        <v>44202.5118055556</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="n">
+        <v>44202.6587152778</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="n">
         <v>44202.7148032407</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="B48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="n">
         <v>44203.3904166667</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="B49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="n">
         <v>44203.3916087963</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="B50" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="n">
         <v>44203.3920138889</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="B51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="n">
         <v>44203.3921064815</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>78</v>
+      <c r="B52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="MOSD MAIN"/>
+    <hyperlink ref="B5" r:id="rId2" display="MOSD MAIN"/>
+    <hyperlink ref="B6" r:id="rId3" display="MOSD MAIN"/>
+    <hyperlink ref="B7" r:id="rId4" display="MOSD MAIN"/>
+    <hyperlink ref="B8" r:id="rId5" display="MOSD MAIN"/>
+    <hyperlink ref="B9" r:id="rId6" display="MOSD MAIN"/>
+    <hyperlink ref="B10" r:id="rId7" display="MOSD MAIN"/>
+    <hyperlink ref="B11" r:id="rId8" display="MOSD MAIN"/>
+    <hyperlink ref="B12" r:id="rId9" display="MOSD MAIN"/>
+    <hyperlink ref="B13" r:id="rId10" display="MOSD MAIN"/>
+    <hyperlink ref="B14" r:id="rId11" display="MOSD MAIN"/>
+    <hyperlink ref="B15" r:id="rId12" display="MOSD MAIN"/>
+    <hyperlink ref="B16" r:id="rId13" display="MOSD MAIN"/>
+    <hyperlink ref="B17" r:id="rId14" display="MOSD MAIN"/>
+    <hyperlink ref="B18" r:id="rId15" display="Official Presidents Chat"/>
+    <hyperlink ref="B19" r:id="rId16" display="Official Presidents Chat"/>
+    <hyperlink ref="B20" r:id="rId17" display="MOSD Main (Voice Note)"/>
+    <hyperlink ref="B21" r:id="rId18" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B22" r:id="rId19" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B23" r:id="rId20" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B24" r:id="rId21" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B25" r:id="rId22" display="MOSD"/>
+    <hyperlink ref="B26" r:id="rId23" display="MOSD Op"/>
+    <hyperlink ref="B27" r:id="rId24" display="MOSD Op"/>
+    <hyperlink ref="B28" r:id="rId25" display="MOSD Op"/>
+    <hyperlink ref="B29" r:id="rId26" display="MOSD MAIN2"/>
+    <hyperlink ref="B30" r:id="rId27" display="MOSD MAIN 2 (Voice Note)"/>
+    <hyperlink ref="B31" r:id="rId28" display="MOSD Op"/>
+    <hyperlink ref="B32" r:id="rId29" display="MOSD Op"/>
+    <hyperlink ref="B33" r:id="rId30" display="New MOSD"/>
+    <hyperlink ref="B34" r:id="rId31" display="New MOSD"/>
+    <hyperlink ref="B35" r:id="rId32" display="Boots on the Ground"/>
+    <hyperlink ref="B36" r:id="rId33" display="Boots on the Ground"/>
+    <hyperlink ref="B37" r:id="rId34" display="Boots on the Ground"/>
+    <hyperlink ref="B38" r:id="rId35" display="Boots on the Ground"/>
+    <hyperlink ref="B39" r:id="rId36" display="Boots on the Ground"/>
+    <hyperlink ref="B40" r:id="rId37" display="Boots on the Ground"/>
+    <hyperlink ref="B41" r:id="rId38" display="Boots on the Ground"/>
+    <hyperlink ref="B42" r:id="rId39" display="New MOSD"/>
+    <hyperlink ref="B43" r:id="rId40" display="New MOSD"/>
+    <hyperlink ref="B44" r:id="rId41" display="New MOSD"/>
+    <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
+    <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
+    <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
+    <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
+    <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
+    <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
+    <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
+    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t xml:space="preserve">Freedom Plaza at noon is where our guys will be. Either I or another member from Michigan will be with this group. While a couple stay back and lead our chapter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique Florida Pb (Enrique Tarrio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of right now... 
+The DC trip will consist of two groups. None of which can be in colors. 
+1. The first group of guys have been invited to a special chapter within the organization. If you haven't been invited...please be patient. We are growing the group slowly. 
+2. The second group consists of PBs that are just attending the event. You can coordinate with other PBs and do whatever you guys want. 
+Group 1 and group 2 will not have any interaction with each other on the 5th at night and 6th throughout the day. We are running a training exercise at those times. 
+Group 2 is still expected to conduct themselves as gentlemen and always keep themselves in a self defense mindset at all times. 
+They way we do national rallies will change drastically over the course of the next couple months. After the 6th you will have to be part of group 1 to attend national events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedBeard... THE Original! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| know most of the events will be centered around freedom plaza....is anyone staying at the Marriott hotel that is right next to the place? Just looking to book a place to stay that will be around where guys are staying</t>
   </si>
   <si>
     <t xml:space="preserve">Brien James</t>
@@ -509,12 +527,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -602,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -763,9 +781,9 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="10" customFormat="true" ht="513.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
-        <v>44195.0198263889</v>
+        <v>44193.4759490741</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -773,29 +791,29 @@
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="10" customFormat="true" ht="109.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
-        <v>44195</v>
+        <v>44194.3291666667</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="10" customFormat="true" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
-        <v>44195.3401273148</v>
+        <v>44195.0198263889</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -810,7 +828,7 @@
     </row>
     <row r="15" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
-        <v>44195.5264583333</v>
+        <v>44195</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
@@ -823,9 +841,9 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
-        <v>44195.6760300926</v>
+        <v>44195.3401273148</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
@@ -838,27 +856,27 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
-        <v>44195.443900463</v>
+        <v>44195.5264583333</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
-        <v>44196.7282638889</v>
+        <v>44195.6760300926</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>34</v>
@@ -868,97 +886,99 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
+        <v>44195.443900463</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>44196.7282638889</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
         <v>44194.5940856482</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
         <v>44198.8496990741</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="n">
         <v>44198.8576388889</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="n">
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="n">
         <v>44198.8581018519</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B25" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
-        <v>44199.7982986111</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
-        <v>44199.8016319444</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>49</v>
@@ -967,96 +987,96 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="n">
-        <v>44200.1027777778</v>
+        <v>44199.7982986111</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <v>44199.8016319444</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="C27" s="0" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="n">
-        <v>44200.1069444444</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+    <row r="28" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
+        <v>44200.1027777778</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
         <v>44200.1208333333</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="C30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
         <v>44200.8243055556</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="n">
         <v>44200.8730324074</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
-        <v>44200.4034722222</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
-        <v>44200.6770833333</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>64</v>
@@ -1065,37 +1085,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
-        <v>44201.8993981482</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="33" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="n">
+        <v>44200.4034722222</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="11" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
+        <v>44200.6770833333</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
-        <v>44201.9033101852</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
-        <v>44201.7238425926</v>
+    <row r="35" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="n">
+        <v>44201.8993981482</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>70</v>
@@ -1107,26 +1127,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
-        <v>44201.7404166667</v>
+    <row r="36" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="n">
+        <v>44201.9033101852</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="11" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
+        <v>44201.7238425926</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
-        <v>44201.7407175926</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>75</v>
@@ -1135,214 +1155,242 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+    <row r="38" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
+        <v>44201.7404166667</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="n">
+        <v>44201.7407175926</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
         <v>44201.741412037</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="B40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="D40" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
         <v>44201.7441782407</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
-        <v>44201.7496064815</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
-        <v>44201.8134143519</v>
-      </c>
       <c r="B41" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
-        <v>44201.8798611111</v>
+    <row r="42" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
+        <v>44201.7496064815</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="14" t="n">
+        <v>44201.8134143519</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
+        <v>44201.8798611111</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
         <v>44201.8899305556</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
-        <v>44201.8906365741</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
-        <v>44201.9730555556</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
-        <v>44202.5118055556</v>
+        <v>87</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>44201.8906365741</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="D46" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>44201.9730555556</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>44202.5118055556</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
         <v>44202.6587152778</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>44202.7148032407</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>44203.3904166667</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
-        <v>44202.7148032407</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <v>44203.3916087963</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
-        <v>44203.3904166667</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
-        <v>44203.3916087963</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="C52" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
         <v>44203.3920138889</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="B53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
         <v>44203.3921064815</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>97</v>
+      <c r="B54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1364,41 +1412,43 @@
     <hyperlink ref="B15" r:id="rId12" display="MOSD MAIN"/>
     <hyperlink ref="B16" r:id="rId13" display="MOSD MAIN"/>
     <hyperlink ref="B17" r:id="rId14" display="MOSD MAIN"/>
-    <hyperlink ref="B18" r:id="rId15" display="Official Presidents Chat"/>
-    <hyperlink ref="B19" r:id="rId16" display="Official Presidents Chat"/>
-    <hyperlink ref="B20" r:id="rId17" display="MOSD Main (Voice Note)"/>
-    <hyperlink ref="B21" r:id="rId18" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B22" r:id="rId19" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B18" r:id="rId15" display="MOSD MAIN"/>
+    <hyperlink ref="B19" r:id="rId16" display="MOSD MAIN"/>
+    <hyperlink ref="B20" r:id="rId17" display="Official Presidents Chat"/>
+    <hyperlink ref="B21" r:id="rId18" display="Official Presidents Chat"/>
+    <hyperlink ref="B22" r:id="rId19" display="MOSD Main (Voice Note)"/>
     <hyperlink ref="B23" r:id="rId20" display="MOSD (Voice Note)"/>
     <hyperlink ref="B24" r:id="rId21" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B25" r:id="rId22" display="MOSD"/>
-    <hyperlink ref="B26" r:id="rId23" display="MOSD Op"/>
-    <hyperlink ref="B27" r:id="rId24" display="MOSD Op"/>
+    <hyperlink ref="B25" r:id="rId22" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B26" r:id="rId23" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B27" r:id="rId24" display="MOSD"/>
     <hyperlink ref="B28" r:id="rId25" display="MOSD Op"/>
-    <hyperlink ref="B29" r:id="rId26" display="MOSD MAIN2"/>
-    <hyperlink ref="B30" r:id="rId27" display="MOSD MAIN 2 (Voice Note)"/>
-    <hyperlink ref="B31" r:id="rId28" display="MOSD Op"/>
-    <hyperlink ref="B32" r:id="rId29" display="MOSD Op"/>
-    <hyperlink ref="B33" r:id="rId30" display="New MOSD"/>
-    <hyperlink ref="B34" r:id="rId31" display="New MOSD"/>
-    <hyperlink ref="B35" r:id="rId32" display="Boots on the Ground"/>
-    <hyperlink ref="B36" r:id="rId33" display="Boots on the Ground"/>
+    <hyperlink ref="B29" r:id="rId26" display="MOSD Op"/>
+    <hyperlink ref="B30" r:id="rId27" display="MOSD Op"/>
+    <hyperlink ref="B31" r:id="rId28" display="MOSD MAIN2"/>
+    <hyperlink ref="B32" r:id="rId29" display="MOSD MAIN 2 (Voice Note)"/>
+    <hyperlink ref="B33" r:id="rId30" display="MOSD Op"/>
+    <hyperlink ref="B34" r:id="rId31" display="MOSD Op"/>
+    <hyperlink ref="B35" r:id="rId32" display="New MOSD"/>
+    <hyperlink ref="B36" r:id="rId33" display="New MOSD"/>
     <hyperlink ref="B37" r:id="rId34" display="Boots on the Ground"/>
     <hyperlink ref="B38" r:id="rId35" display="Boots on the Ground"/>
     <hyperlink ref="B39" r:id="rId36" display="Boots on the Ground"/>
     <hyperlink ref="B40" r:id="rId37" display="Boots on the Ground"/>
     <hyperlink ref="B41" r:id="rId38" display="Boots on the Ground"/>
-    <hyperlink ref="B42" r:id="rId39" display="New MOSD"/>
-    <hyperlink ref="B43" r:id="rId40" display="New MOSD"/>
+    <hyperlink ref="B42" r:id="rId39" display="Boots on the Ground"/>
+    <hyperlink ref="B43" r:id="rId40" display="Boots on the Ground"/>
     <hyperlink ref="B44" r:id="rId41" display="New MOSD"/>
-    <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
-    <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
+    <hyperlink ref="B45" r:id="rId42" display="New MOSD"/>
+    <hyperlink ref="B46" r:id="rId43" display="New MOSD"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
     <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
-    <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
-    <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
+    <hyperlink ref="B49" r:id="rId46" display="Boots on the Ground"/>
+    <hyperlink ref="B50" r:id="rId47" display="Boots on the Ground"/>
     <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
     <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
+    <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
+    <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -331,6 +331,21 @@
     <t xml:space="preserve">BLM Antifa thugs attacking Trump supporters in D.C.
 This is the vicious assault by BLM scumbag on Trump supporter in Washington D.C.
 [video attached]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me what the plan is. I'll spam post it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys are starting to take their groups off alone because they can't find leadership.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give us a location so we can help keep them together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're here. We're doing our thing, at least the MoSD guys that showed up. As far as anybody else, not really sure what a -- everybody else is doing as far as, like, you know, the rogue chapters that came out here, so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSD MAIN 2</t>
   </si>
   <si>
     <t xml:space="preserve">Кров і грунт</t>
@@ -620,10 +635,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1295,51 +1310,51 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
-        <v>44202.5118055556</v>
+        <v>44202.4667361111</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="11" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
+        <v>44202.4670486111</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>44202.6587152778</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="11" t="s">
+    <row r="50" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>44202.4673148148</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>44202.7148032407</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="n">
-        <v>44203.3904166667</v>
+        <v>44202.4734722222</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>70</v>
@@ -1348,15 +1363,15 @@
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <v>44202.5118055556</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
-        <v>44203.3916087963</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>98</v>
@@ -1365,32 +1380,88 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
-        <v>44203.3920138889</v>
+        <v>44202.6587152778</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
+        <v>44202.7148032407</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
+        <v>44203.3904166667</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>44203.3916087963</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>44203.3920138889</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
         <v>44203.3921064815</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>101</v>
+      <c r="D58" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1442,13 +1513,17 @@
     <hyperlink ref="B45" r:id="rId42" display="New MOSD"/>
     <hyperlink ref="B46" r:id="rId43" display="New MOSD"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
-    <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
-    <hyperlink ref="B49" r:id="rId46" display="Boots on the Ground"/>
-    <hyperlink ref="B50" r:id="rId47" display="Boots on the Ground"/>
+    <hyperlink ref="B48" r:id="rId45" display="New MOSD"/>
+    <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
+    <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
     <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
-    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
-    <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
-    <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
+    <hyperlink ref="B52" r:id="rId49" display="MOSD MAIN 2"/>
+    <hyperlink ref="B53" r:id="rId50" display="Boots on the Ground"/>
+    <hyperlink ref="B54" r:id="rId51" display="Boots on the Ground"/>
+    <hyperlink ref="B55" r:id="rId52" display="New MOSD"/>
+    <hyperlink ref="B56" r:id="rId53" display="New MOSD"/>
+    <hyperlink ref="B57" r:id="rId54" display="New MOSD"/>
+    <hyperlink ref="B58" r:id="rId55" display="New MOSD"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -261,9 +261,6 @@
     <t xml:space="preserve">New MOSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Captain Trump</t>
-  </si>
-  <si>
     <t xml:space="preserve">If we still have plans to break off on teams, we can pick them there on the spot obviously</t>
   </si>
   <si>
@@ -273,7 +270,7 @@
     <t xml:space="preserve">Boots on the Ground</t>
   </si>
   <si>
-    <t xml:space="preserve">Joe Bigs</t>
+    <t xml:space="preserve">Joe Biggs</t>
   </si>
   <si>
     <t xml:space="preserve">Woth rufio trying to get numbers so we can make a plan</t>
@@ -319,9 +316,6 @@
   </si>
   <si>
     <t xml:space="preserve">What's the plan so I can pass it to the MOSD guys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Biggs</t>
   </si>
   <si>
     <t xml:space="preserve">[In reply to YutYut Cowabunga “What’s the plan so I can pass it to the MOSD guys”]:
@@ -342,6 +336,9 @@
     <t xml:space="preserve">Give us a location so we can help keep them together.</t>
   </si>
   <si>
+    <t xml:space="preserve">New MOSD (Voice Note)</t>
+  </si>
+  <si>
     <t xml:space="preserve">We're here. We're doing our thing, at least the MoSD guys that showed up. As far as anybody else, not really sure what a -- everybody else is doing as far as, like, you know, the rogue chapters that came out here, so</t>
   </si>
   <si>
@@ -374,15 +371,30 @@
   </si>
   <si>
     <t xml:space="preserve">Everybody bailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSD Leaders – Jan. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This FBI affidavit for Biggs, it's, of course, a steaming pile of dog shit that tries to make it seem like the Capitol shit was planned. 
+[Link to affidavit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rufio Panman [Ethan Nordean]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to Captain Trump “This FBI affidavit for Biggs, it's, of course, a steaming pile of dog shit that tries to make it seem like the Capitol shit was planned.”]
+What the fuck?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -489,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,6 +568,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -635,10 +651,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1136,10 +1152,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1153,7 +1169,7 @@
         <v>53</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1161,13 +1177,13 @@
         <v>44201.7238425926</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1175,13 +1191,13 @@
         <v>44201.7404166667</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1189,13 +1205,13 @@
         <v>44201.7407175926</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1203,13 +1219,13 @@
         <v>44201.741412037</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,13 +1233,13 @@
         <v>44201.7441782407</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1231,13 +1247,13 @@
         <v>44201.7496064815</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1245,13 +1261,13 @@
         <v>44201.8134143519</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1262,10 +1278,10 @@
         <v>70</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1276,10 +1292,10 @@
         <v>70</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1290,10 +1306,10 @@
         <v>70</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1301,13 +1317,13 @@
         <v>44201.9730555556</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1318,10 +1334,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1349,7 +1365,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1357,13 +1373,13 @@
         <v>44202.4734722222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1371,13 +1387,13 @@
         <v>44202.5118055556</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1385,13 +1401,13 @@
         <v>44202.6587152778</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1399,13 +1415,13 @@
         <v>44202.7148032407</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +1446,10 @@
         <v>70</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,10 +1460,10 @@
         <v>70</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,10 +1474,38 @@
         <v>70</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>106</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1568,8 @@
     <hyperlink ref="B56" r:id="rId53" display="New MOSD"/>
     <hyperlink ref="B57" r:id="rId54" display="New MOSD"/>
     <hyperlink ref="B58" r:id="rId55" display="New MOSD"/>
+    <hyperlink ref="B59" r:id="rId56" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B60" r:id="rId57" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -182,6 +182,18 @@
     <t xml:space="preserve">This? This right here? This could grow some  legs. Think about it. If we all went in as ‘Tifa, somehow using their fucking shit to identify ourselves amongst each other, everyone wearing red arm bands, everyone wearing, uh, yellow fucking hammer and sickle on their shirts. And then roll up with  ‘Tifa and beat the motherfuck out of them? This could grow some legs… just sayin’.</t>
   </si>
   <si>
+    <t xml:space="preserve">MOSD Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Biggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well. Here's the thing. We all have beards for the most part and antifa don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I mean for us to blend in. We will need to cover our beards.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOSD (Voice Note)</t>
   </si>
   <si>
@@ -212,10 +224,17 @@
     <t xml:space="preserve">Is @NobleLead still doing a speech? Where is that? These are things that are holding up my thought process for the moment. Other than that the captial is a good start</t>
   </si>
   <si>
-    <t xml:space="preserve">MOSD Op</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deleted Account</t>
+    <t xml:space="preserve">If your beard is visible, you will stick out like a sore thumb in DC lol. Antifa will identify you as PB in seconds lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YutYut Cowabunga [Charles Donohoe]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In reply to Saint Xhristopher “What level black block? Just clothes? Bike helmets, goggles, and cans of soup?”]
+Clothes. There is a potential for a simple and quick mission. That is all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard WD Stomper</t>
   </si>
   <si>
     <t xml:space="preserve">Anyone at night that gets high powered strobed move backwards not forwards. You will be anywhere from 10 seconds to 30 seconds visually impaired.02:29They will swarm you. Anyone that see those little fuckers pulling that shit run up and TKO that MFer. Man or women</t>
@@ -225,6 +244,9 @@
 I've had this before they knew what it was. I gave the other one to my favorite nephew. This laser will will burn your eye out</t>
   </si>
   <si>
+    <t xml:space="preserve">Deleted Account</t>
+  </si>
+  <si>
     <t xml:space="preserve">If and I mean if we go lurking after the sun goes down we need a minimum of 2 rows, if not 3. That way the firstrow can retreat backwards id needed the secondcrow advance and alternate and so on. Unified fronts are hard to collapse. Mayb the front front line takes the cucks passes them to the back while everyone does their jobs</t>
   </si>
   <si>
@@ -268,9 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">Boots on the Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Biggs</t>
   </si>
   <si>
     <t xml:space="preserve">Woth rufio trying to get numbers so we can make a plan</t>
@@ -306,9 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ok you queers what is the fucking plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YutYut Cowabunga [Charles Donohoe]</t>
   </si>
   <si>
     <t xml:space="preserve">Hey who's boots on ground with a plan RN
@@ -562,12 +578,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -651,10 +667,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,11 +992,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
-        <v>44198.8496990741</v>
-      </c>
-      <c r="B23" s="9" t="s">
+        <v>44198.6402777778</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -990,54 +1006,54 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
-        <v>44198.8576388889</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <v>44198.6416666667</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
+    <row r="25" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>44198.8496990741</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="n">
+        <v>44198.8576388889</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="n">
         <v>44198.8581018519</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
-        <v>44199.7982986111</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="69.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="n">
-        <v>44199.8016319444</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>53</v>
@@ -1046,208 +1062,208 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
-        <v>44200.1027777778</v>
+    <row r="28" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
+        <v>44199.7982986111</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="n">
+        <v>44199.8016319444</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="C29" s="0" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="n">
-        <v>44200.1069444444</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+    <row r="30" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
+        <v>44199.8881944445</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
+        <v>44199.9743055556</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="n">
+        <v>44200.1027777778</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
         <v>44200.1208333333</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
+      <c r="B34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="n">
         <v>44200.8243055556</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="B35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="n">
         <v>44200.8730324074</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
-        <v>44200.4034722222</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
-        <v>44200.6770833333</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
-        <v>44201.8993981482</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
-        <v>44201.9033101852</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
+        <v>44200.4034722222</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
+        <v>44200.6770833333</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="n">
+        <v>44201.8993981482</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
+        <v>44201.9033101852</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
         <v>44201.7238425926</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
-        <v>44201.7404166667</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
-        <v>44201.7407175926</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
-        <v>44201.741412037</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
-        <v>44201.7441782407</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
-        <v>44201.7496064815</v>
+        <v>44201.7404166667</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>82</v>
@@ -1256,12 +1272,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
-        <v>44201.8134143519</v>
+        <v>44201.7407175926</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>84</v>
@@ -1270,180 +1286,180 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
+        <v>44201.741412037</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>44201.7441782407</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>44201.7496064815</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>44201.8134143519</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
         <v>44201.8798611111</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="B48" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
         <v>44201.8899305556</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="B49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>44201.8906365741</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>44201.9730555556</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <v>44201.8906365741</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <v>44201.9730555556</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
-        <v>44202.4667361111</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>44202.4670486111</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>44202.4673148148</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
-        <v>44202.4734722222</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="n">
-        <v>44202.5118055556</v>
+        <v>44202.4667361111</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
+        <v>44202.4670486111</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
-        <v>44202.6587152778</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
-        <v>44202.7148032407</v>
+        <v>44202.4673148148</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
+        <v>44202.4734722222</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
-        <v>44203.3904166667</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="11" t="s">
+    <row r="56" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>44202.5118055556</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
-        <v>44203.3916087963</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>102</v>
@@ -1452,60 +1468,116 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
-        <v>44203.3920138889</v>
+        <v>44202.6587152778</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="n">
-        <v>44203.3921064815</v>
+        <v>44202.7148032407</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="n">
-        <v>44216</v>
+    <row r="59" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
+        <v>44203.3904166667</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <v>44203.3916087963</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+      <c r="D60" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="n">
+        <v>44203.3920138889</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
+        <v>44203.3921064815</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="n">
         <v>44216</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>109</v>
+      <c r="B63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1532,44 +1604,48 @@
     <hyperlink ref="B20" r:id="rId17" display="Official Presidents Chat"/>
     <hyperlink ref="B21" r:id="rId18" display="Official Presidents Chat"/>
     <hyperlink ref="B22" r:id="rId19" display="MOSD Main (Voice Note)"/>
-    <hyperlink ref="B23" r:id="rId20" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B24" r:id="rId21" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B23" r:id="rId20" display="MOSD Op"/>
+    <hyperlink ref="B24" r:id="rId21" display="MOSD Op"/>
     <hyperlink ref="B25" r:id="rId22" display="MOSD (Voice Note)"/>
     <hyperlink ref="B26" r:id="rId23" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B27" r:id="rId24" display="MOSD"/>
-    <hyperlink ref="B28" r:id="rId25" display="MOSD Op"/>
-    <hyperlink ref="B29" r:id="rId26" display="MOSD Op"/>
+    <hyperlink ref="B27" r:id="rId24" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B28" r:id="rId25" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B29" r:id="rId26" display="MOSD"/>
     <hyperlink ref="B30" r:id="rId27" display="MOSD Op"/>
-    <hyperlink ref="B31" r:id="rId28" display="MOSD MAIN2"/>
-    <hyperlink ref="B32" r:id="rId29" display="MOSD MAIN 2 (Voice Note)"/>
+    <hyperlink ref="B31" r:id="rId28" display="MOSD Op"/>
+    <hyperlink ref="B32" r:id="rId29" display="MOSD Op"/>
     <hyperlink ref="B33" r:id="rId30" display="MOSD Op"/>
     <hyperlink ref="B34" r:id="rId31" display="MOSD Op"/>
-    <hyperlink ref="B35" r:id="rId32" display="New MOSD"/>
-    <hyperlink ref="B36" r:id="rId33" display="New MOSD"/>
-    <hyperlink ref="B37" r:id="rId34" display="Boots on the Ground"/>
-    <hyperlink ref="B38" r:id="rId35" display="Boots on the Ground"/>
-    <hyperlink ref="B39" r:id="rId36" display="Boots on the Ground"/>
-    <hyperlink ref="B40" r:id="rId37" display="Boots on the Ground"/>
+    <hyperlink ref="B35" r:id="rId32" display="MOSD MAIN2"/>
+    <hyperlink ref="B36" r:id="rId33" display="MOSD MAIN 2 (Voice Note)"/>
+    <hyperlink ref="B37" r:id="rId34" display="MOSD Op"/>
+    <hyperlink ref="B38" r:id="rId35" display="MOSD Op"/>
+    <hyperlink ref="B39" r:id="rId36" display="New MOSD"/>
+    <hyperlink ref="B40" r:id="rId37" display="New MOSD"/>
     <hyperlink ref="B41" r:id="rId38" display="Boots on the Ground"/>
     <hyperlink ref="B42" r:id="rId39" display="Boots on the Ground"/>
     <hyperlink ref="B43" r:id="rId40" display="Boots on the Ground"/>
-    <hyperlink ref="B44" r:id="rId41" display="New MOSD"/>
-    <hyperlink ref="B45" r:id="rId42" display="New MOSD"/>
-    <hyperlink ref="B46" r:id="rId43" display="New MOSD"/>
+    <hyperlink ref="B44" r:id="rId41" display="Boots on the Ground"/>
+    <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
+    <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
     <hyperlink ref="B48" r:id="rId45" display="New MOSD"/>
     <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
     <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
-    <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
-    <hyperlink ref="B52" r:id="rId49" display="MOSD MAIN 2"/>
-    <hyperlink ref="B53" r:id="rId50" display="Boots on the Ground"/>
-    <hyperlink ref="B54" r:id="rId51" display="Boots on the Ground"/>
-    <hyperlink ref="B55" r:id="rId52" display="New MOSD"/>
-    <hyperlink ref="B56" r:id="rId53" display="New MOSD"/>
-    <hyperlink ref="B57" r:id="rId54" display="New MOSD"/>
-    <hyperlink ref="B58" r:id="rId55" display="New MOSD"/>
-    <hyperlink ref="B59" r:id="rId56" display="MOSD Leaders – Jan. 9"/>
-    <hyperlink ref="B60" r:id="rId57" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B51" r:id="rId48" display="Boots on the Ground"/>
+    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
+    <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
+    <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
+    <hyperlink ref="B55" r:id="rId52" display="New MOSD (Voice Note)"/>
+    <hyperlink ref="B56" r:id="rId53" display="MOSD MAIN 2"/>
+    <hyperlink ref="B57" r:id="rId54" display="Boots on the Ground"/>
+    <hyperlink ref="B58" r:id="rId55" display="Boots on the Ground"/>
+    <hyperlink ref="B59" r:id="rId56" display="New MOSD"/>
+    <hyperlink ref="B60" r:id="rId57" display="New MOSD"/>
+    <hyperlink ref="B61" r:id="rId58" display="New MOSD"/>
+    <hyperlink ref="B62" r:id="rId59" display="New MOSD"/>
+    <hyperlink ref="B63" r:id="rId60" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B64" r:id="rId61" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t xml:space="preserve">It’s gonna get real interesting at night time can hardly fucking wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopefully its to add boots on ground and presence mitigate Antifa</t>
   </si>
   <si>
     <t xml:space="preserve">New MOSD</t>
@@ -667,10 +673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,43 +1222,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
+        <v>44200.7159722222</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
         <v>44201.8993981482</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
-        <v>44201.9033101852</v>
-      </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <v>44201.9033101852</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
-        <v>44201.7238425926</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>81</v>
@@ -1260,13 +1266,13 @@
     </row>
     <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
-        <v>44201.7404166667</v>
+        <v>44201.7238425926</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>83</v>
@@ -1274,10 +1280,10 @@
     </row>
     <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
-        <v>44201.7407175926</v>
+        <v>44201.7404166667</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>84</v>
@@ -1286,54 +1292,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
-        <v>44201.741412037</v>
+        <v>44201.7407175926</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
+        <v>44201.741412037</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
         <v>44201.7441782407</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <v>44201.7496064815</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="C46" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
-        <v>44201.8134143519</v>
+        <v>44201.7496064815</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>90</v>
@@ -1342,110 +1348,110 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
+        <v>44201.8134143519</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
         <v>44201.8798611111</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>44201.8899305556</v>
-      </c>
       <c r="B49" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
+        <v>44201.8899305556</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
         <v>44201.8906365741</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+      <c r="D51" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
         <v>44201.9730555556</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+      <c r="B52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
         <v>44202.4667361111</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="B53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
         <v>44202.4670486111</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
-        <v>44202.4673148148</v>
-      </c>
       <c r="B54" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
-        <v>44202.4734722222</v>
+        <v>44202.4673148148</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>53</v>
@@ -1454,130 +1460,144 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
-        <v>44202.5118055556</v>
+        <v>44202.4734722222</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="11" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>44202.5118055556</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="C57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
         <v>44202.6587152778</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="B58" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
         <v>44202.7148032407</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="B59" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
-        <v>44203.3904166667</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>106</v>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
-        <v>44203.3916087963</v>
+        <v>44203.3904166667</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
+        <v>44203.3916087963</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
         <v>44203.3920138889</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
+      <c r="D62" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="n">
         <v>44203.3921064815</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="B63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="n">
         <v>44216</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>114</v>
+      <c r="C65" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1620,32 +1640,33 @@
     <hyperlink ref="B36" r:id="rId33" display="MOSD MAIN 2 (Voice Note)"/>
     <hyperlink ref="B37" r:id="rId34" display="MOSD Op"/>
     <hyperlink ref="B38" r:id="rId35" display="MOSD Op"/>
-    <hyperlink ref="B39" r:id="rId36" display="New MOSD"/>
+    <hyperlink ref="B39" r:id="rId36" display="MOSD Op"/>
     <hyperlink ref="B40" r:id="rId37" display="New MOSD"/>
-    <hyperlink ref="B41" r:id="rId38" display="Boots on the Ground"/>
+    <hyperlink ref="B41" r:id="rId38" display="New MOSD"/>
     <hyperlink ref="B42" r:id="rId39" display="Boots on the Ground"/>
     <hyperlink ref="B43" r:id="rId40" display="Boots on the Ground"/>
     <hyperlink ref="B44" r:id="rId41" display="Boots on the Ground"/>
     <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
     <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
-    <hyperlink ref="B48" r:id="rId45" display="New MOSD"/>
+    <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
     <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
     <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
-    <hyperlink ref="B51" r:id="rId48" display="Boots on the Ground"/>
-    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
+    <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
+    <hyperlink ref="B52" r:id="rId49" display="Boots on the Ground"/>
     <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
     <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
-    <hyperlink ref="B55" r:id="rId52" display="New MOSD (Voice Note)"/>
-    <hyperlink ref="B56" r:id="rId53" display="MOSD MAIN 2"/>
-    <hyperlink ref="B57" r:id="rId54" display="Boots on the Ground"/>
+    <hyperlink ref="B55" r:id="rId52" display="New MOSD"/>
+    <hyperlink ref="B56" r:id="rId53" display="New MOSD (Voice Note)"/>
+    <hyperlink ref="B57" r:id="rId54" display="MOSD MAIN 2"/>
     <hyperlink ref="B58" r:id="rId55" display="Boots on the Ground"/>
-    <hyperlink ref="B59" r:id="rId56" display="New MOSD"/>
+    <hyperlink ref="B59" r:id="rId56" display="Boots on the Ground"/>
     <hyperlink ref="B60" r:id="rId57" display="New MOSD"/>
     <hyperlink ref="B61" r:id="rId58" display="New MOSD"/>
     <hyperlink ref="B62" r:id="rId59" display="New MOSD"/>
-    <hyperlink ref="B63" r:id="rId60" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B63" r:id="rId60" display="New MOSD"/>
     <hyperlink ref="B64" r:id="rId61" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B65" r:id="rId62" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/j6/ProudBoys-TelegramChatAnalysis.xlsx
+++ b/j6/ProudBoys-TelegramChatAnalysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t xml:space="preserve">Potentially Exculpatory Telegram Messages</t>
   </si>
@@ -38,6 +38,16 @@
   </si>
   <si>
     <t xml:space="preserve">Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Blackbeard [Johnny Stewart]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 6, are we going in as a group? I have guys going even if the frat declines
+It's in the middle of the week and these rallies are stacked on top if each other so we will most likely not be there for the protest portion but the after "party" we will be</t>
   </si>
   <si>
     <t xml:space="preserve">MOSD MAIN</t>
@@ -152,7 +162,10 @@
     <t xml:space="preserve">Thad PB</t>
   </si>
   <si>
-    <t xml:space="preserve">We should ABSOLUTELY have rules of engagement revised with both Antifa/bIm and also integration SOP’s for normy “allies” and especially press during events </t>
+    <t xml:space="preserve">We should ABSOLUTELY have rules of engagement revised with both Antifa/blm and also integration SOP’s for normy “allies” and especially press during events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As far as “investigating” agitators, | think that it is clearly a case by case type situation. Seeing one rainbow shield wielding larpist screaming my body my choice is clearly a nothing to see here type situation. However, if we have an active body of scout types prowling and regrouping at different points in a March, we do the same and post watches in critical areas which may be breached for instance </t>
   </si>
   <si>
     <t xml:space="preserve">That’s how people got stabbed. One guy saying shit and 30 pbs go after him. We cannot be the aggressor like that. We just need to stay in formation and don’t let anyone that is not a PB within the group. We also cannot just hang in the streets like we did in front of Harris. </t>
@@ -206,16 +219,10 @@
     <t xml:space="preserve">I wish we were half as cool where we could coordinate something like this. If we wanted to. In Minecraft. But the truth is we can’t even get guys to march in the same direction. </t>
   </si>
   <si>
-    <t xml:space="preserve">Johnny Blackbeard [Johnny Stewart]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Right? Imagine if anybody actually knew how fucking retarded our members are. I wonder if they’d even acknowledge it at this point. Because of how wrong they will have to admit they have been for all these years.</t>
   </si>
   <si>
     <t xml:space="preserve">Yeah, let’s do this from the ground tomorrow while I’m in D.C. The problem that I have is, we’re only going to be talking about certain aspects of it, but, um, I’m getting so many conflicting issues with, like, stages, locations, and times that, um, that I don’t know where to put people. I do know that we gotta be out, uh, very early.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSD</t>
   </si>
   <si>
     <t xml:space="preserve">Captain Trump [Zachary Rehl]</t>
@@ -560,14 +567,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,16 +591,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -673,10 +680,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,9 +721,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="136.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
-        <v>44192.1500115741</v>
+        <v>44185.4609143519</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -727,308 +734,310 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" s="10" customFormat="true" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
+        <v>44192.1500115741</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>44192.8309259259</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>44192.9196064815</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <v>44193.3944097222</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
+        <v>44193.3944097222</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>44193.9249189815</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>44194.2631018519</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
         <v>44194.3294328704</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
         <v>44193.929525463</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="513.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="513.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
         <v>44193.4759490741</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="109.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="109.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
         <v>44194.3291666667</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>44195.0198263889</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="B15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>44195</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
         <v>44195.3401273148</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="113.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>44195.5264583333</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" s="10" customFormat="true" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>44195.6760300926</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
-        <v>44195.443900463</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" s="10" customFormat="true" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
-        <v>44196.7282638889</v>
-      </c>
-      <c r="B20" s="9" t="s">
+        <v>44195.6989351852</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" s="10" customFormat="true" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
+        <v>44195.443900463</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>44196.7282638889</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>44196.7282638889</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="178.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="n">
         <v>44194.5940856482</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="B24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="n">
         <v>44198.6402777778</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
-        <v>44198.6416666667</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
-        <v>44198.8496990741</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>49</v>
@@ -1036,13 +1045,13 @@
       <c r="C25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
-        <v>44198.8576388889</v>
+    <row r="26" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="n">
+        <v>44198.6416666667</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>49</v>
@@ -1054,550 +1063,578 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+    <row r="27" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
+        <v>44198.8496990741</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
+        <v>44198.8576388889</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="n">
         <v>44198.8581018519</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="n">
+        <v>44199.7982986111</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
+        <v>44199.8016319444</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="n">
+        <v>44199.8881944445</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C32" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
-        <v>44199.7982986111</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="D32" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16" t="n">
+        <v>44199.9743055556</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
-        <v>44199.8016319444</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
-        <v>44199.8881944445</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="102.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
-        <v>44199.9743055556</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
-        <v>44200.1027777778</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
-        <v>44200.1069444444</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="127.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="n">
+        <v>44200.1027777778</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
+      <c r="D34" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="147.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="n">
+        <v>44200.1069444444</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="n">
         <v>44200.1208333333</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="B36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" s="10" customFormat="true" ht="99.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="n">
         <v>44200.8243055556</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+      <c r="C37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="208.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="n">
         <v>44200.8730324074</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+      <c r="C38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="n">
         <v>44200.4034722222</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="B39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="n">
         <v>44200.6770833333</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+      <c r="B40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="n">
         <v>44200.7159722222</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+      <c r="B41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="57.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="n">
         <v>44201.8993981482</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="31.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="n">
         <v>44201.9033101852</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="C43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="n">
         <v>44201.7238425926</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
+      <c r="B44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="n">
         <v>44201.7404166667</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B45" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="C45" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="n">
         <v>44201.7407175926</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="B46" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="n">
+        <v>44201.741412037</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
-        <v>44201.741412037</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D47" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="n">
+        <v>44201.7441782407</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="46.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <v>44201.7441782407</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="C48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="n">
+        <v>44201.7496064815</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="93.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <v>44201.7496064815</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+      <c r="C49" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="n">
         <v>44201.8134143519</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <v>44201.8798611111</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="B50" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>44201.8899305556</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
-        <v>44201.8906365741</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>79</v>
+    <row r="51" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="n">
+        <v>44201.8798611111</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
-        <v>44201.9730555556</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>82</v>
+    <row r="52" customFormat="false" ht="26.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="n">
+        <v>44201.8899305556</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
-        <v>44202.4667361111</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>79</v>
+    <row r="53" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="n">
+        <v>44201.8906365741</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+    <row r="54" customFormat="false" ht="104.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="n">
+        <v>44201.9730555556</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
+        <v>44202.4667361111</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="n">
         <v>44202.4670486111</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+      <c r="B56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="n">
         <v>44202.4673148148</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
+      <c r="B57" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="95.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="n">
         <v>44202.4734722222</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
+      <c r="B58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="n">
         <v>44202.5118055556</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="C59" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="83.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
         <v>44202.6587152778</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
+      <c r="B60" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="69.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
         <v>44202.7148032407</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
+      <c r="B61" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
         <v>44203.3904166667</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
+      <c r="B62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
         <v>44203.3916087963</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
+      <c r="B63" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
         <v>44203.3920138889</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
+      <c r="B64" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="n">
         <v>44203.3921064815</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="n">
+      <c r="B65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="n">
         <v>44216</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="n">
+      <c r="B66" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="102.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17" t="n">
         <v>44216</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B67" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>116</v>
+      <c r="C67" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1642,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="MOSD MAIN"/>
+    <hyperlink ref="B4" r:id="rId1" display="MOSD"/>
     <hyperlink ref="B5" r:id="rId2" display="MOSD MAIN"/>
     <hyperlink ref="B6" r:id="rId3" display="MOSD MAIN"/>
     <hyperlink ref="B7" r:id="rId4" display="MOSD MAIN"/>
@@ -1621,52 +1658,54 @@
     <hyperlink ref="B17" r:id="rId14" display="MOSD MAIN"/>
     <hyperlink ref="B18" r:id="rId15" display="MOSD MAIN"/>
     <hyperlink ref="B19" r:id="rId16" display="MOSD MAIN"/>
-    <hyperlink ref="B20" r:id="rId17" display="Official Presidents Chat"/>
-    <hyperlink ref="B21" r:id="rId18" display="Official Presidents Chat"/>
-    <hyperlink ref="B22" r:id="rId19" display="MOSD Main (Voice Note)"/>
-    <hyperlink ref="B23" r:id="rId20" display="MOSD Op"/>
-    <hyperlink ref="B24" r:id="rId21" display="MOSD Op"/>
-    <hyperlink ref="B25" r:id="rId22" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B26" r:id="rId23" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B20" r:id="rId17" display="MOSD MAIN"/>
+    <hyperlink ref="B21" r:id="rId18" display="MOSD MAIN"/>
+    <hyperlink ref="B22" r:id="rId19" display="Official Presidents Chat"/>
+    <hyperlink ref="B23" r:id="rId20" display="Official Presidents Chat"/>
+    <hyperlink ref="B24" r:id="rId21" display="MOSD Main (Voice Note)"/>
+    <hyperlink ref="B25" r:id="rId22" display="MOSD Op"/>
+    <hyperlink ref="B26" r:id="rId23" display="MOSD Op"/>
     <hyperlink ref="B27" r:id="rId24" display="MOSD (Voice Note)"/>
     <hyperlink ref="B28" r:id="rId25" display="MOSD (Voice Note)"/>
-    <hyperlink ref="B29" r:id="rId26" display="MOSD"/>
-    <hyperlink ref="B30" r:id="rId27" display="MOSD Op"/>
-    <hyperlink ref="B31" r:id="rId28" display="MOSD Op"/>
+    <hyperlink ref="B29" r:id="rId26" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B30" r:id="rId27" display="MOSD (Voice Note)"/>
+    <hyperlink ref="B31" r:id="rId28" display="MOSD"/>
     <hyperlink ref="B32" r:id="rId29" display="MOSD Op"/>
     <hyperlink ref="B33" r:id="rId30" display="MOSD Op"/>
     <hyperlink ref="B34" r:id="rId31" display="MOSD Op"/>
-    <hyperlink ref="B35" r:id="rId32" display="MOSD MAIN2"/>
-    <hyperlink ref="B36" r:id="rId33" display="MOSD MAIN 2 (Voice Note)"/>
-    <hyperlink ref="B37" r:id="rId34" display="MOSD Op"/>
-    <hyperlink ref="B38" r:id="rId35" display="MOSD Op"/>
+    <hyperlink ref="B35" r:id="rId32" display="MOSD Op"/>
+    <hyperlink ref="B36" r:id="rId33" display="MOSD Op"/>
+    <hyperlink ref="B37" r:id="rId34" display="MOSD MAIN2"/>
+    <hyperlink ref="B38" r:id="rId35" display="MOSD MAIN 2 (Voice Note)"/>
     <hyperlink ref="B39" r:id="rId36" display="MOSD Op"/>
-    <hyperlink ref="B40" r:id="rId37" display="New MOSD"/>
-    <hyperlink ref="B41" r:id="rId38" display="New MOSD"/>
-    <hyperlink ref="B42" r:id="rId39" display="Boots on the Ground"/>
-    <hyperlink ref="B43" r:id="rId40" display="Boots on the Ground"/>
+    <hyperlink ref="B40" r:id="rId37" display="MOSD Op"/>
+    <hyperlink ref="B41" r:id="rId38" display="MOSD Op"/>
+    <hyperlink ref="B42" r:id="rId39" display="New MOSD"/>
+    <hyperlink ref="B43" r:id="rId40" display="New MOSD"/>
     <hyperlink ref="B44" r:id="rId41" display="Boots on the Ground"/>
     <hyperlink ref="B45" r:id="rId42" display="Boots on the Ground"/>
     <hyperlink ref="B46" r:id="rId43" display="Boots on the Ground"/>
     <hyperlink ref="B47" r:id="rId44" display="Boots on the Ground"/>
     <hyperlink ref="B48" r:id="rId45" display="Boots on the Ground"/>
-    <hyperlink ref="B49" r:id="rId46" display="New MOSD"/>
-    <hyperlink ref="B50" r:id="rId47" display="New MOSD"/>
+    <hyperlink ref="B49" r:id="rId46" display="Boots on the Ground"/>
+    <hyperlink ref="B50" r:id="rId47" display="Boots on the Ground"/>
     <hyperlink ref="B51" r:id="rId48" display="New MOSD"/>
-    <hyperlink ref="B52" r:id="rId49" display="Boots on the Ground"/>
+    <hyperlink ref="B52" r:id="rId49" display="New MOSD"/>
     <hyperlink ref="B53" r:id="rId50" display="New MOSD"/>
-    <hyperlink ref="B54" r:id="rId51" display="New MOSD"/>
+    <hyperlink ref="B54" r:id="rId51" display="Boots on the Ground"/>
     <hyperlink ref="B55" r:id="rId52" display="New MOSD"/>
-    <hyperlink ref="B56" r:id="rId53" display="New MOSD (Voice Note)"/>
-    <hyperlink ref="B57" r:id="rId54" display="MOSD MAIN 2"/>
-    <hyperlink ref="B58" r:id="rId55" display="Boots on the Ground"/>
-    <hyperlink ref="B59" r:id="rId56" display="Boots on the Ground"/>
-    <hyperlink ref="B60" r:id="rId57" display="New MOSD"/>
-    <hyperlink ref="B61" r:id="rId58" display="New MOSD"/>
+    <hyperlink ref="B56" r:id="rId53" display="New MOSD"/>
+    <hyperlink ref="B57" r:id="rId54" display="New MOSD"/>
+    <hyperlink ref="B58" r:id="rId55" display="New MOSD (Voice Note)"/>
+    <hyperlink ref="B59" r:id="rId56" display="MOSD MAIN 2"/>
+    <hyperlink ref="B60" r:id="rId57" display="Boots on the Ground"/>
+    <hyperlink ref="B61" r:id="rId58" display="Boots on the Ground"/>
     <hyperlink ref="B62" r:id="rId59" display="New MOSD"/>
     <hyperlink ref="B63" r:id="rId60" display="New MOSD"/>
-    <hyperlink ref="B64" r:id="rId61" display="MOSD Leaders – Jan. 9"/>
-    <hyperlink ref="B65" r:id="rId62" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B64" r:id="rId61" display="New MOSD"/>
+    <hyperlink ref="B65" r:id="rId62" display="New MOSD"/>
+    <hyperlink ref="B66" r:id="rId63" display="MOSD Leaders – Jan. 9"/>
+    <hyperlink ref="B67" r:id="rId64" display="MOSD Leaders – Jan. 9"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
